--- a/source/comment_robust_incur.xlsx
+++ b/source/comment_robust_incur.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C2">
-        <v>0.8418367346938775</v>
+        <v>0.2941190003042516</v>
       </c>
       <c r="D2">
-        <v>0.9423076923076923</v>
+        <v>0.2865754606902932</v>
       </c>
       <c r="E2">
-        <v>0.8704663212435233</v>
+        <v>0.3034837693949866</v>
       </c>
       <c r="F2">
-        <v>0.9732142857142857</v>
+        <v>0.27288889329911</v>
       </c>
       <c r="G2">
-        <v>0.9295774647887324</v>
+        <v>0.2710238298784768</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.3635231435231435</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8418367346938775</v>
+        <v>0.2547250609103122</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="D3">
-        <v>0.9615384615384616</v>
+        <v>0.5197059107824659</v>
       </c>
       <c r="E3">
-        <v>0.8186528497409327</v>
+        <v>0.3705963687573829</v>
       </c>
       <c r="F3">
-        <v>0.8839285714285714</v>
+        <v>0.3502663810790746</v>
       </c>
       <c r="G3">
-        <v>0.9225352112676056</v>
+        <v>0.463957556167471</v>
       </c>
       <c r="H3">
-        <v>0.8888888888888888</v>
+        <v>0.4011247086247086</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9423076923076923</v>
+        <v>0.3797500638648964</v>
       </c>
       <c r="C4">
-        <v>0.9615384615384616</v>
+        <v>0.3960118270883821</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.6217604617604617</v>
       </c>
       <c r="E4">
-        <v>0.8173076923076923</v>
+        <v>0.3641847041847042</v>
       </c>
       <c r="F4">
-        <v>0.625</v>
+        <v>0.3708662323853711</v>
       </c>
       <c r="G4">
-        <v>0.7788461538461539</v>
+        <v>0.3885097597777024</v>
       </c>
       <c r="H4">
-        <v>0.7037037037037037</v>
+        <v>0.374512987012987</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8704663212435233</v>
+        <v>0.4080292239404412</v>
       </c>
       <c r="C5">
-        <v>0.8186528497409327</v>
+        <v>0.3771620253230394</v>
       </c>
       <c r="D5">
-        <v>0.8173076923076923</v>
+        <v>0.3231746031746032</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F5">
-        <v>0.9107142857142857</v>
+        <v>0.5204023938737561</v>
       </c>
       <c r="G5">
-        <v>0.9366197183098591</v>
+        <v>0.5256213443834954</v>
       </c>
       <c r="H5">
-        <v>0.8148148148148148</v>
+        <v>0.473480685980686</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9732142857142857</v>
+        <v>0.4832010811112978</v>
       </c>
       <c r="C6">
-        <v>0.8839285714285714</v>
+        <v>0.4513878984505919</v>
       </c>
       <c r="D6">
-        <v>0.625</v>
+        <v>0.4281461746653134</v>
       </c>
       <c r="E6">
-        <v>0.9107142857142857</v>
+        <v>0.4380791615505237</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.7267676767676767</v>
       </c>
       <c r="G6">
-        <v>0.7946428571428571</v>
+        <v>0.4862809302553885</v>
       </c>
       <c r="H6">
-        <v>0.7407407407407407</v>
+        <v>0.4580846054530265</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9295774647887324</v>
+        <v>0.4897106985653454</v>
       </c>
       <c r="C7">
-        <v>0.9225352112676056</v>
+        <v>0.6033514955614103</v>
       </c>
       <c r="D7">
-        <v>0.7788461538461539</v>
+        <v>0.5129036991716418</v>
       </c>
       <c r="E7">
-        <v>0.9366197183098591</v>
+        <v>0.5528940716562227</v>
       </c>
       <c r="F7">
-        <v>0.7946428571428571</v>
+        <v>0.4792102231846814</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.7848484848484848</v>
       </c>
       <c r="H7">
-        <v>0.7407407407407407</v>
+        <v>0.6636363636363637</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.8049242424242424</v>
       </c>
       <c r="C8">
-        <v>0.8888888888888888</v>
+        <v>0.6787878787878788</v>
       </c>
       <c r="D8">
-        <v>0.7037037037037037</v>
+        <v>0.6801767676767676</v>
       </c>
       <c r="E8">
-        <v>0.8148148148148148</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="F8">
-        <v>0.7407407407407407</v>
+        <v>0.6636363636363637</v>
       </c>
       <c r="G8">
-        <v>0.7407407407407407</v>
+        <v>0.6636363636363637</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.8212121212121212</v>
       </c>
     </row>
   </sheetData>

--- a/source/comment_robust_incur.xlsx
+++ b/source/comment_robust_incur.xlsx
@@ -19,22 +19,22 @@
     <t>เมจิ</t>
   </si>
   <si>
-    <t>ไทยเดนมาร์ค</t>
+    <t>ดัชมิลล์</t>
+  </si>
+  <si>
+    <t>โฟร์โมสต์</t>
   </si>
   <si>
     <t>แดรี่โฮม</t>
   </si>
   <si>
-    <t>โฟร์โมสต์</t>
-  </si>
-  <si>
     <t>โชคชัย</t>
   </si>
   <si>
-    <t>หนองโพ</t>
+    <t>เอ็มมิลค์</t>
   </si>
   <si>
-    <t>เอ็มมิลค์</t>
+    <t>ไทยเดนมาร์ค</t>
   </si>
 </sst>
 </file>
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6818181818181818</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2941190003042516</v>
+        <v>0.4410973449751827</v>
       </c>
       <c r="D2">
-        <v>0.2865754606902932</v>
+        <v>0.3607880077639661</v>
       </c>
       <c r="E2">
-        <v>0.3034837693949866</v>
+        <v>0.2122380676208427</v>
       </c>
       <c r="F2">
-        <v>0.27288889329911</v>
+        <v>0.2903229403035905</v>
       </c>
       <c r="G2">
-        <v>0.2710238298784768</v>
+        <v>0.9004629629629629</v>
       </c>
       <c r="H2">
-        <v>0.3635231435231435</v>
+        <v>0.2258745032307255</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2547250609103122</v>
+        <v>0.4410973449751827</v>
       </c>
       <c r="C3">
-        <v>0.7363636363636363</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5197059107824659</v>
+        <v>0.3517292299385621</v>
       </c>
       <c r="E3">
-        <v>0.3705963687573829</v>
+        <v>0.1366052180901805</v>
       </c>
       <c r="F3">
-        <v>0.3502663810790746</v>
+        <v>0.2043590532113655</v>
       </c>
       <c r="G3">
-        <v>0.463957556167471</v>
+        <v>0.02</v>
       </c>
       <c r="H3">
-        <v>0.4011247086247086</v>
+        <v>0.3443707055212601</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3797500638648964</v>
+        <v>0.3607880077639661</v>
       </c>
       <c r="C4">
-        <v>0.3960118270883821</v>
+        <v>0.3517292299385621</v>
       </c>
       <c r="D4">
-        <v>0.6217604617604617</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.3641847041847042</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3708662323853711</v>
+        <v>0.1527455337702865</v>
       </c>
       <c r="G4">
-        <v>0.3885097597777024</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="H4">
-        <v>0.374512987012987</v>
+        <v>0.2950594260928291</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4080292239404412</v>
+        <v>0.2122380676208427</v>
       </c>
       <c r="C5">
-        <v>0.3771620253230394</v>
+        <v>0.1366052180901805</v>
       </c>
       <c r="D5">
-        <v>0.3231746031746032</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7818181818181819</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5204023938737561</v>
+        <v>0.06749855009424387</v>
       </c>
       <c r="G5">
-        <v>0.5256213443834954</v>
+        <v>0.03837719298245614</v>
       </c>
       <c r="H5">
-        <v>0.473480685980686</v>
+        <v>0.2883955500813239</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4832010811112978</v>
+        <v>0.2903229403035905</v>
       </c>
       <c r="C6">
-        <v>0.4513878984505919</v>
+        <v>0.2043590532113655</v>
       </c>
       <c r="D6">
-        <v>0.4281461746653134</v>
+        <v>0.1527455337702865</v>
       </c>
       <c r="E6">
-        <v>0.4380791615505237</v>
+        <v>0.06749855009424387</v>
       </c>
       <c r="F6">
-        <v>0.7267676767676767</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4862809302553885</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.4580846054530265</v>
+        <v>0.1968717315536201</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4897106985653454</v>
+        <v>0.9004629629629629</v>
       </c>
       <c r="C7">
-        <v>0.6033514955614103</v>
+        <v>0.02</v>
       </c>
       <c r="D7">
-        <v>0.5129036991716418</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="E7">
-        <v>0.5528940716562227</v>
+        <v>0.03837719298245614</v>
       </c>
       <c r="F7">
-        <v>0.4792102231846814</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7848484848484848</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.6636363636363637</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8049242424242424</v>
+        <v>0.2258745032307255</v>
       </c>
       <c r="C8">
-        <v>0.6787878787878788</v>
+        <v>0.3443707055212601</v>
       </c>
       <c r="D8">
-        <v>0.6801767676767676</v>
+        <v>0.2950594260928291</v>
       </c>
       <c r="E8">
-        <v>0.6727272727272727</v>
+        <v>0.2883955500813239</v>
       </c>
       <c r="F8">
-        <v>0.6636363636363637</v>
+        <v>0.1968717315536201</v>
       </c>
       <c r="G8">
-        <v>0.6636363636363637</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="H8">
-        <v>0.8212121212121212</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/source/comment_robust_incur.xlsx
+++ b/source/comment_robust_incur.xlsx
@@ -19,22 +19,22 @@
     <t>เมจิ</t>
   </si>
   <si>
-    <t>ดัชมิลล์</t>
+    <t>ไทยเดนมาร์ค</t>
+  </si>
+  <si>
+    <t>แดรี่โฮม</t>
   </si>
   <si>
     <t>โฟร์โมสต์</t>
   </si>
   <si>
-    <t>แดรี่โฮม</t>
-  </si>
-  <si>
     <t>โชคชัย</t>
   </si>
   <si>
-    <t>เอ็มมิลค์</t>
+    <t>หนองโพ</t>
   </si>
   <si>
-    <t>ไทยเดนมาร์ค</t>
+    <t>เอ็มมิลค์</t>
   </si>
 </sst>
 </file>
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C2">
-        <v>0.4410973449751827</v>
+        <v>0.2941190003042516</v>
       </c>
       <c r="D2">
-        <v>0.3607880077639661</v>
+        <v>0.2865754606902932</v>
       </c>
       <c r="E2">
-        <v>0.2122380676208427</v>
+        <v>0.3034837693949866</v>
       </c>
       <c r="F2">
-        <v>0.2903229403035905</v>
+        <v>0.27288889329911</v>
       </c>
       <c r="G2">
-        <v>0.9004629629629629</v>
+        <v>0.2710238298784768</v>
       </c>
       <c r="H2">
-        <v>0.2258745032307255</v>
+        <v>0.3635231435231435</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4410973449751827</v>
+        <v>0.2547250609103122</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="D3">
-        <v>0.3517292299385621</v>
+        <v>0.5197059107824659</v>
       </c>
       <c r="E3">
-        <v>0.1366052180901805</v>
+        <v>0.3705963687573829</v>
       </c>
       <c r="F3">
-        <v>0.2043590532113655</v>
+        <v>0.3502663810790746</v>
       </c>
       <c r="G3">
-        <v>0.02</v>
+        <v>0.463957556167471</v>
       </c>
       <c r="H3">
-        <v>0.3443707055212601</v>
+        <v>0.4011247086247086</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3607880077639661</v>
+        <v>0.3797500638648964</v>
       </c>
       <c r="C4">
-        <v>0.3517292299385621</v>
+        <v>0.3960118270883821</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.6217604617604617</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.3641847041847042</v>
       </c>
       <c r="F4">
-        <v>0.1527455337702865</v>
+        <v>0.3708662323853711</v>
       </c>
       <c r="G4">
-        <v>0.02272727272727273</v>
+        <v>0.3885097597777024</v>
       </c>
       <c r="H4">
-        <v>0.2950594260928291</v>
+        <v>0.374512987012987</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2122380676208427</v>
+        <v>0.4080292239404412</v>
       </c>
       <c r="C5">
-        <v>0.1366052180901805</v>
+        <v>0.3771620253230394</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.3231746031746032</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F5">
-        <v>0.06749855009424387</v>
+        <v>0.5204023938737561</v>
       </c>
       <c r="G5">
-        <v>0.03837719298245614</v>
+        <v>0.5256213443834954</v>
       </c>
       <c r="H5">
-        <v>0.2883955500813239</v>
+        <v>0.473480685980686</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2903229403035905</v>
+        <v>0.4832010811112978</v>
       </c>
       <c r="C6">
-        <v>0.2043590532113655</v>
+        <v>0.4513878984505919</v>
       </c>
       <c r="D6">
-        <v>0.1527455337702865</v>
+        <v>0.4281461746653134</v>
       </c>
       <c r="E6">
-        <v>0.06749855009424387</v>
+        <v>0.4380791615505237</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.7267676767676767</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.4862809302553885</v>
       </c>
       <c r="H6">
-        <v>0.1968717315536201</v>
+        <v>0.4580846054530265</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9004629629629629</v>
+        <v>0.4897106985653454</v>
       </c>
       <c r="C7">
-        <v>0.02</v>
+        <v>0.6033514955614103</v>
       </c>
       <c r="D7">
-        <v>0.02272727272727273</v>
+        <v>0.5129036991716418</v>
       </c>
       <c r="E7">
-        <v>0.03837719298245614</v>
+        <v>0.5528940716562227</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.4792102231846814</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.7848484848484848</v>
       </c>
       <c r="H7">
-        <v>0.02083333333333333</v>
+        <v>0.6636363636363637</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2258745032307255</v>
+        <v>0.8049242424242424</v>
       </c>
       <c r="C8">
-        <v>0.3443707055212601</v>
+        <v>0.6787878787878788</v>
       </c>
       <c r="D8">
-        <v>0.2950594260928291</v>
+        <v>0.6801767676767676</v>
       </c>
       <c r="E8">
-        <v>0.2883955500813239</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="F8">
-        <v>0.1968717315536201</v>
+        <v>0.6636363636363637</v>
       </c>
       <c r="G8">
-        <v>0.02083333333333333</v>
+        <v>0.6636363636363637</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.8212121212121212</v>
       </c>
     </row>
   </sheetData>

--- a/source/comment_robust_incur.xlsx
+++ b/source/comment_robust_incur.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
-    <t>เมจิ</t>
+    <t>ซีพีเมจิ</t>
   </si>
   <si>
-    <t>ไทยเดนมาร์ค</t>
+    <t>ดัชมิลล์</t>
+  </si>
+  <si>
+    <t>โฟร์โมสต์</t>
   </si>
   <si>
     <t>แดรี่โฮม</t>
   </si>
   <si>
-    <t>โฟร์โมสต์</t>
-  </si>
-  <si>
     <t>โชคชัย</t>
   </si>
   <si>
-    <t>หนองโพ</t>
+    <t>เอ็มมิลค์</t>
   </si>
   <si>
-    <t>เอ็มมิลค์</t>
+    <t>ไทยเดนมาร์ค</t>
   </si>
 </sst>
 </file>
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6818181818181818</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2941190003042516</v>
+        <v>0.4792952040174577</v>
       </c>
       <c r="D2">
-        <v>0.2865754606902932</v>
+        <v>0.2777522527062574</v>
       </c>
       <c r="E2">
-        <v>0.3034837693949866</v>
+        <v>0.224371023713129</v>
       </c>
       <c r="F2">
-        <v>0.27288889329911</v>
+        <v>0.2888666637814707</v>
       </c>
       <c r="G2">
-        <v>0.2710238298784768</v>
+        <v>0.6643410769648392</v>
       </c>
       <c r="H2">
-        <v>0.3635231435231435</v>
+        <v>0.2244886142485043</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2547250609103122</v>
+        <v>0.4792952040174577</v>
       </c>
       <c r="C3">
-        <v>0.7363636363636363</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5197059107824659</v>
+        <v>0.4967229315012426</v>
       </c>
       <c r="E3">
-        <v>0.3705963687573829</v>
+        <v>0.2242091242091242</v>
       </c>
       <c r="F3">
-        <v>0.3502663810790746</v>
+        <v>0.352914087982575</v>
       </c>
       <c r="G3">
-        <v>0.463957556167471</v>
+        <v>0.4676098785473785</v>
       </c>
       <c r="H3">
-        <v>0.4011247086247086</v>
+        <v>0.4561916130317639</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3797500638648964</v>
+        <v>0.2777522527062574</v>
       </c>
       <c r="C4">
-        <v>0.3960118270883821</v>
+        <v>0.4967229315012426</v>
       </c>
       <c r="D4">
-        <v>0.6217604617604617</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.3641847041847042</v>
+        <v>0.05485224235224236</v>
       </c>
       <c r="F4">
-        <v>0.3708662323853711</v>
+        <v>0.3011457261995974</v>
       </c>
       <c r="G4">
-        <v>0.3885097597777024</v>
+        <v>0.04034015752765752</v>
       </c>
       <c r="H4">
-        <v>0.374512987012987</v>
+        <v>0.3688733219341377</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4080292239404412</v>
+        <v>0.224371023713129</v>
       </c>
       <c r="C5">
-        <v>0.3771620253230394</v>
+        <v>0.2242091242091242</v>
       </c>
       <c r="D5">
-        <v>0.3231746031746032</v>
+        <v>0.05485224235224236</v>
       </c>
       <c r="E5">
-        <v>0.7818181818181819</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5204023938737561</v>
+        <v>0.2190981903668471</v>
       </c>
       <c r="G5">
-        <v>0.5256213443834954</v>
+        <v>0.09712620712620712</v>
       </c>
       <c r="H5">
-        <v>0.473480685980686</v>
+        <v>0.2670822766976613</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4832010811112978</v>
+        <v>0.2888666637814707</v>
       </c>
       <c r="C6">
-        <v>0.4513878984505919</v>
+        <v>0.352914087982575</v>
       </c>
       <c r="D6">
-        <v>0.4281461746653134</v>
+        <v>0.3011457261995974</v>
       </c>
       <c r="E6">
-        <v>0.4380791615505237</v>
+        <v>0.2190981903668471</v>
       </c>
       <c r="F6">
-        <v>0.7267676767676767</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4862809302553885</v>
+        <v>0.1777782652782653</v>
       </c>
       <c r="H6">
-        <v>0.4580846054530265</v>
+        <v>0.3003986672944793</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4897106985653454</v>
+        <v>0.6643410769648392</v>
       </c>
       <c r="C7">
-        <v>0.6033514955614103</v>
+        <v>0.4676098785473785</v>
       </c>
       <c r="D7">
-        <v>0.5129036991716418</v>
+        <v>0.04034015752765752</v>
       </c>
       <c r="E7">
-        <v>0.5528940716562227</v>
+        <v>0.09712620712620712</v>
       </c>
       <c r="F7">
-        <v>0.4792102231846814</v>
+        <v>0.1777782652782653</v>
       </c>
       <c r="G7">
-        <v>0.7848484848484848</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0.6636363636363637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8049242424242424</v>
+        <v>0.2244886142485043</v>
       </c>
       <c r="C8">
-        <v>0.6787878787878788</v>
+        <v>0.4561916130317639</v>
       </c>
       <c r="D8">
-        <v>0.6801767676767676</v>
+        <v>0.3688733219341377</v>
       </c>
       <c r="E8">
-        <v>0.6727272727272727</v>
+        <v>0.2670822766976613</v>
       </c>
       <c r="F8">
-        <v>0.6636363636363637</v>
+        <v>0.3003986672944793</v>
       </c>
       <c r="G8">
-        <v>0.6636363636363637</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.8212121212121212</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
